--- a/DigitBridge.QuickBooks.Integration/Doc/QuickBooks_Online_API_Fields_Mapping.xlsx
+++ b/DigitBridge.QuickBooks.Integration/Doc/QuickBooks_Online_API_Fields_Mapping.xlsx
@@ -28,7 +28,7 @@
     <author>Will Huang</author>
   </authors>
   <commentList>
-    <comment ref="C31" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +307,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="291">
+  <si>
+    <t>Doc link:https://developer.intuit.com/app/developer/qbo/docs/api/accounting/all-entities/invoice#the-invoice-object</t>
+  </si>
   <si>
     <t>Central Field Name</t>
   </si>
@@ -349,6 +352,9 @@
   </si>
   <si>
     <t>invoiceitems [0..n]</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Line [0..n]</t>
@@ -1804,12 +1810,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1944,28 +1950,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1978,13 +1963,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1992,16 +1971,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2017,17 +2011,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2035,14 +2021,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2072,13 +2050,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2088,7 +2065,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2141,18 +2140,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2203,19 +2202,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2227,19 +2238,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2257,43 +2268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2311,7 +2292,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2323,55 +2346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2387,6 +2362,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2394,15 +2375,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2421,17 +2393,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2460,11 +2426,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2497,152 +2478,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2685,6 +2666,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3009,15 +2993,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:XFD46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="75.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="71.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="20.8518518518519" customWidth="1"/>
     <col min="3" max="3" width="32.287037037037" customWidth="1"/>
     <col min="4" max="4" width="18.287037037037" customWidth="1"/>
@@ -3027,215 +3011,204 @@
     <col min="9" max="9" width="161.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="32" customFormat="1" spans="1:1">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" ht="20.4" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="15.6" spans="3:9">
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" ht="15.6" spans="3:9">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" ht="15.6" spans="1:9">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="E3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="25"/>
       <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:9">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:9">
-      <c r="A4" s="32" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
-        <v>11</v>
-      </c>
+      <c r="F4" s="24"/>
       <c r="G4" s="25"/>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" ht="15.6" spans="1:9">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" ht="15.6" spans="3:9">
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" ht="15.6" spans="3:9">
+      <c r="C7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" ht="15.6" spans="1:9">
-      <c r="A7" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>11</v>
-      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="25"/>
       <c r="H7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:9">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" ht="15.6" spans="3:9">
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" ht="15.6" spans="1:9">
-      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="3:9">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:9">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" ht="15.6" spans="3:9">
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="E10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" ht="15.6" spans="1:9">
-      <c r="A11" t="s">
+      <c r="I10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="3:9">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -3251,7 +3224,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -3259,7 +3232,10 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" ht="15.6" spans="3:9">
+    <row r="13" ht="15.6" spans="1:9">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
@@ -3270,16 +3246,14 @@
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" ht="15.6" spans="3:9">
       <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -3294,125 +3268,117 @@
         <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
-        <v>11</v>
-      </c>
+      <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:9">
-      <c r="A16" s="22" t="s">
+    <row r="16" ht="15.6" spans="3:9">
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="2"/>
       <c r="I16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:9">
+      <c r="A17" s="22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" ht="15.6" spans="3:9">
       <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
       <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="3:9">
       <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
       <c r="H18" s="2"/>
       <c r="I18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="3:9">
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" ht="15.6" spans="3:9">
-      <c r="C19" s="33" t="s">
+      <c r="D19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>11</v>
-      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="25"/>
       <c r="H19" s="2"/>
       <c r="I19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="3:9">
+      <c r="C20" s="34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" ht="15.6" spans="1:9">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:9">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E21" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="8" t="s">
@@ -3420,73 +3386,81 @@
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:9">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" ht="15.6" spans="3:9">
+    </row>
+    <row r="23" ht="15.6" spans="1:9">
+      <c r="A23" s="33" t="s">
+        <v>68</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="25"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" ht="15.6" spans="3:9">
       <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" ht="15.6" spans="1:9">
-      <c r="A25" s="32" t="s">
+      <c r="I24" s="6" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="25" ht="15.6" spans="3:9">
       <c r="C25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" ht="15.6" spans="1:9">
+      <c r="A26" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" ht="15.6" spans="3:9">
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -3501,22 +3475,22 @@
         <v>77</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
       <c r="H27" s="2"/>
       <c r="I27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="3:9">
       <c r="C28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -3531,7 +3505,7 @@
         <v>82</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -3546,143 +3520,139 @@
         <v>84</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" ht="15.6" spans="1:9">
-      <c r="A31" t="s">
+      <c r="I30" s="6" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="31" ht="15.6" spans="3:9">
       <c r="C31" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" ht="15.6" spans="1:9">
+      <c r="A32" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" ht="115.2" spans="1:9">
-      <c r="A32" s="34" t="s">
+      <c r="C32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" ht="15.6" spans="3:9">
+      <c r="I32" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" ht="115.2" spans="1:9">
+      <c r="A33" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="6" t="s">
-        <v>91</v>
-      </c>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" ht="15.6" spans="3:9">
       <c r="C34" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="25"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" ht="15.6" spans="1:9">
-      <c r="A35" t="s">
+      <c r="I34" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="6" t="s">
+    </row>
+    <row r="35" ht="15.6" spans="3:9">
+      <c r="C35" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" ht="15.6" spans="1:9">
+      <c r="A36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" ht="115.2" spans="1:9">
-      <c r="A36" s="34" t="s">
+      <c r="C36" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="25"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" ht="115.2" spans="1:9">
+      <c r="A37" s="35" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="37" ht="15.6" spans="3:9">
       <c r="C37" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="25"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" ht="15.6" spans="1:9">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="I37" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="3:9">
       <c r="C38" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="24" t="s">
-        <v>11</v>
-      </c>
+      <c r="G38" s="25"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" ht="15.6" spans="1:9">
       <c r="A39" s="9"/>
@@ -3691,12 +3661,12 @@
         <v>102</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
@@ -3706,57 +3676,57 @@
     <row r="40" ht="15.6" spans="1:9">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="1:9">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="42" ht="15.6" spans="1:9">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="31" t="s">
-        <v>109</v>
-      </c>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" ht="15.6" spans="1:9">
       <c r="A43" s="9"/>
@@ -3765,15 +3735,15 @@
         <v>110</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="31" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3784,34 +3754,56 @@
         <v>112</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="3:9">
+    <row r="45" ht="15.6" spans="1:9">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="46" ht="15.6" spans="3:9">
+      <c r="C46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -3841,168 +3833,168 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4012,10 +4004,10 @@
     </row>
     <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4025,10 +4017,10 @@
     </row>
     <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4038,163 +4030,163 @@
     </row>
     <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4204,25 +4196,25 @@
     </row>
     <row r="23" ht="15.6" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4232,85 +4224,85 @@
     </row>
     <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4320,25 +4312,25 @@
     </row>
     <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -4348,25 +4340,25 @@
     </row>
     <row r="33" ht="15.6" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -4376,10 +4368,10 @@
     </row>
     <row r="35" ht="15.6" spans="1:7">
       <c r="A35" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -4389,25 +4381,25 @@
     </row>
     <row r="36" ht="15.6" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="15.6" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4417,132 +4409,132 @@
     </row>
     <row r="38" ht="15.6" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" ht="15.6" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" ht="15.6" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" ht="15.6" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" ht="15.6" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" ht="15.6" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4575,93 +4567,93 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="3:9">
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" ht="15.6" spans="1:9">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" ht="15.6" spans="1:9">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -4669,106 +4661,106 @@
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" ht="15.6" spans="1:9">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" ht="15.6" spans="1:9">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="3:9">
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" ht="15.6" spans="1:9">
       <c r="A9" s="22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="2"/>
       <c r="I9" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="3:9">
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4778,13 +4770,13 @@
     </row>
     <row r="11" ht="15.6" spans="1:9">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4794,13 +4786,13 @@
     </row>
     <row r="12" ht="15.6" spans="1:9">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4810,173 +4802,173 @@
     </row>
     <row r="13" ht="15.6" spans="3:9">
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="3:9">
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="3:9">
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:9">
       <c r="A16" s="22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
       <c r="H16" s="2"/>
       <c r="I16" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="3:9">
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
       <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="3:9">
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
       <c r="H18" s="2"/>
       <c r="I18" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="3:9">
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="2"/>
       <c r="I19" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:9">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:9">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E21" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:9">
       <c r="A22" s="22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -4986,25 +4978,25 @@
     </row>
     <row r="23" ht="15.6" spans="3:9">
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="25"/>
       <c r="H23" s="2"/>
       <c r="I23" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="3:9">
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -5014,88 +5006,88 @@
     </row>
     <row r="25" ht="15.6" spans="1:9">
       <c r="A25" s="22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
       <c r="H25" s="2"/>
       <c r="I25" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="3:9">
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="25"/>
       <c r="H26" s="2"/>
       <c r="I26" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" ht="15.6" spans="3:9">
       <c r="C27" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
       <c r="H27" s="2"/>
       <c r="I27" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="3:9">
       <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="25"/>
       <c r="H28" s="2"/>
       <c r="I28" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="3:9">
       <c r="C29" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
       <c r="H29" s="2"/>
       <c r="I29" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="3:9">
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -5105,31 +5097,31 @@
     </row>
     <row r="31" ht="15.6" spans="1:9">
       <c r="A31" s="22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
       <c r="H31" s="2"/>
       <c r="I31" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:9">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -5139,25 +5131,25 @@
     </row>
     <row r="33" ht="15.6" spans="3:9">
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
       <c r="H33" s="2"/>
       <c r="I33" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="3:9">
       <c r="C34" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
@@ -5167,46 +5159,46 @@
     </row>
     <row r="35" ht="15.6" spans="1:9">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" ht="15.6" spans="1:9">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="25"/>
       <c r="H36" s="2"/>
       <c r="I36" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="15.6" spans="3:9">
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -5218,72 +5210,72 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" ht="15.6" spans="1:9">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" ht="15.6" spans="1:9">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="1:9">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -5292,72 +5284,72 @@
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" ht="15.6" spans="1:9">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" ht="15.6" spans="1:9">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="3:9">
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5391,93 +5383,93 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="3:9">
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" ht="15.6" spans="1:9">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" ht="15.6" spans="1:9">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -5485,106 +5477,106 @@
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" ht="15.6" spans="1:9">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" ht="15.6" spans="1:9">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="3:9">
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" ht="15.6" spans="1:9">
       <c r="A9" s="22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="2"/>
       <c r="I9" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="3:9">
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -5594,13 +5586,13 @@
     </row>
     <row r="11" ht="15.6" spans="1:9">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -5610,13 +5602,13 @@
     </row>
     <row r="12" ht="15.6" spans="1:9">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -5626,199 +5618,199 @@
     </row>
     <row r="13" ht="15.6" spans="3:9">
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="3:9">
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="3:9">
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="3:9">
       <c r="C16" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="2"/>
       <c r="I16" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:9">
       <c r="A17" s="22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
       <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="3:9">
       <c r="C18" s="26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
       <c r="H18" s="2"/>
       <c r="I18" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="3:9">
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
       <c r="H19" s="2"/>
       <c r="I19" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="3:9">
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
       <c r="H20" s="2"/>
       <c r="I20" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="3:9">
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="2"/>
       <c r="I21" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:9">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:9">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E23" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:9">
       <c r="A24" s="22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -5828,25 +5820,25 @@
     </row>
     <row r="25" ht="15.6" spans="3:9">
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
       <c r="H25" s="2"/>
       <c r="I25" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="3:9">
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -5856,88 +5848,88 @@
     </row>
     <row r="27" ht="15.6" spans="1:9">
       <c r="A27" s="22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
       <c r="H27" s="2"/>
       <c r="I27" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="3:9">
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="25"/>
       <c r="H28" s="2"/>
       <c r="I28" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="3:9">
       <c r="C29" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
       <c r="H29" s="2"/>
       <c r="I29" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="3:9">
       <c r="C30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
       <c r="H30" s="2"/>
       <c r="I30" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="3:9">
       <c r="C31" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
       <c r="H31" s="2"/>
       <c r="I31" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="3:9">
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -5947,31 +5939,31 @@
     </row>
     <row r="33" ht="15.6" spans="1:9">
       <c r="A33" s="22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
       <c r="H33" s="2"/>
       <c r="I33" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:9">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
@@ -5981,25 +5973,25 @@
     </row>
     <row r="35" ht="15.6" spans="3:9">
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
       <c r="H35" s="2"/>
       <c r="I35" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" ht="15.6" spans="3:9">
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -6009,110 +6001,110 @@
     </row>
     <row r="37" ht="15.6" spans="1:9">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="25"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:9">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
       <c r="H38" s="2"/>
       <c r="I38" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" ht="15.6" spans="1:9">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" ht="15.6" spans="1:9">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="1:9">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:9">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -6121,60 +6113,60 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" ht="15.6" spans="1:9">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="3:9">
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" ht="15.6" spans="1:9">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
@@ -6185,24 +6177,24 @@
     </row>
     <row r="47" ht="15.6" spans="3:9">
       <c r="C47" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" ht="15.6" spans="3:9">
       <c r="C48" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6232,183 +6224,183 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -6416,7 +6408,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6450,125 +6442,125 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6602,105 +6594,105 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="9"/>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6731,66 +6723,66 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" s="16" customFormat="1" ht="15.6" spans="3:7">
       <c r="C4" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6825,138 +6817,138 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="3:7">
       <c r="C5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6991,598 +6983,598 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="9"/>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="12"/>
       <c r="J5" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="12"/>
       <c r="J10" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="12"/>
       <c r="J11" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="3:10">
       <c r="C12" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="12"/>
       <c r="J12" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="3:10">
       <c r="C13" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12"/>
       <c r="J13" s="16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="12"/>
       <c r="J14" s="16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="3:10">
       <c r="C15" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="12"/>
       <c r="J15" s="16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="12"/>
       <c r="J16" s="16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="3:10">
       <c r="C17" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="12"/>
       <c r="J17" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="3:10">
       <c r="C18" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="12"/>
       <c r="J18" s="16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9"/>
       <c r="C19" s="13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" s="12"/>
       <c r="J19" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9"/>
       <c r="C20" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="12"/>
       <c r="J20" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="3:10">
       <c r="C21" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="12"/>
       <c r="J21" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="12"/>
       <c r="J22" s="16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="3:10">
       <c r="C23" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="12"/>
       <c r="J23" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="12"/>
       <c r="J24" s="16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="3:10">
       <c r="C25" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="12"/>
       <c r="J25" s="16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="12"/>
       <c r="J26" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9"/>
       <c r="B27" s="14"/>
       <c r="C27" s="11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" s="12"/>
       <c r="J27" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="9"/>
       <c r="B28" s="14"/>
       <c r="C28" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" s="12"/>
       <c r="J28" s="16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D32" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/DigitBridge.QuickBooks.Integration/Doc/QuickBooks_Online_API_Fields_Mapping.xlsx
+++ b/DigitBridge.QuickBooks.Integration/Doc/QuickBooks_Online_API_Fields_Mapping.xlsx
@@ -7,16 +7,17 @@
     <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice Mapping" sheetId="10" r:id="rId1"/>
-    <sheet name="C&amp;Q Invoice Mapping" sheetId="2" r:id="rId2"/>
-    <sheet name="C&amp;Q Sells Receipt Mapping" sheetId="9" r:id="rId3"/>
-    <sheet name="C&amp;Q Pysical Address Mapping" sheetId="6" r:id="rId4"/>
-    <sheet name="C&amp;Q ItemLine Mapping" sheetId="4" r:id="rId5"/>
-    <sheet name="C&amp;Q GroupLine Mapping" sheetId="5" r:id="rId6"/>
-    <sheet name="C&amp;Q GroupLineDetail Mapping" sheetId="8" r:id="rId7"/>
-    <sheet name="C&amp;Q SalesItemLineDetail Mapping" sheetId="7" r:id="rId8"/>
-    <sheet name="C&amp;Q Item Mapping" sheetId="3" r:id="rId9"/>
-    <sheet name="QBO Invoice" sheetId="1" r:id="rId10"/>
+    <sheet name="Refund mapping" sheetId="11" r:id="rId1"/>
+    <sheet name="Invoice Mapping" sheetId="10" r:id="rId2"/>
+    <sheet name="C&amp;Q Invoice Mapping" sheetId="2" r:id="rId3"/>
+    <sheet name="C&amp;Q Sells Receipt Mapping" sheetId="9" r:id="rId4"/>
+    <sheet name="C&amp;Q Pysical Address Mapping" sheetId="6" r:id="rId5"/>
+    <sheet name="C&amp;Q ItemLine Mapping" sheetId="4" r:id="rId6"/>
+    <sheet name="C&amp;Q GroupLine Mapping" sheetId="5" r:id="rId7"/>
+    <sheet name="C&amp;Q GroupLineDetail Mapping" sheetId="8" r:id="rId8"/>
+    <sheet name="C&amp;Q SalesItemLineDetail Mapping" sheetId="7" r:id="rId9"/>
+    <sheet name="C&amp;Q Item Mapping" sheetId="3" r:id="rId10"/>
+    <sheet name="QBO Invoice" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -28,7 +29,7 @@
     <author>Will Huang</author>
   </authors>
   <commentList>
-    <comment ref="C32" authorId="0">
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
     <author>Will Huang</author>
   </authors>
   <commentList>
-    <comment ref="C31" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,6 +122,49 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Will Huang:
+ChnlOrderID,
+2ndChnlOrderID,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>DigitBdgOrderID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Will Huang</author>
+  </authors>
+  <commentList>
+    <comment ref="C31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
           <t>Will Huang:</t>
@@ -140,7 +184,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Will Huang</author>
@@ -248,7 +292,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Will Huang</author>
@@ -307,15 +351,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="291">
-  <si>
-    <t>Doc link:https://developer.intuit.com/app/developer/qbo/docs/api/accounting/all-entities/invoice#the-invoice-object</t>
-  </si>
-  <si>
-    <t>Central Field Name</t>
-  </si>
-  <si>
-    <t>Is From Config</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="308">
+  <si>
+    <t>doc link: https://developer.intuit.com/app/developer/qbo/docs/api/accounting/all-entities/refundreceipt</t>
+  </si>
+  <si>
+    <t>Invoice return data</t>
   </si>
   <si>
     <t>QBO Field Name</t>
@@ -351,10 +392,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>invoiceitems [0..n]</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>account info.</t>
+  </si>
+  <si>
+    <t>DepositToAccountRef</t>
+  </si>
+  <si>
+    <t>ReferenceType</t>
+  </si>
+  <si>
+    <t>invoicereturnitems [0..n]</t>
   </si>
   <si>
     <t>Line [0..n]</t>
@@ -367,9 +414,6 @@
   </si>
   <si>
     <t>billToName*</t>
-  </si>
-  <si>
-    <t>Conditional</t>
   </si>
   <si>
     <t>CustomerRef</t>
@@ -398,6 +442,18 @@
     <t>SyncToken</t>
   </si>
   <si>
+    <t>PaymentRefNum</t>
+  </si>
+  <si>
+    <t>Conditionally required</t>
+  </si>
+  <si>
+    <t>The reference number for the payment received. For example, check # for a check, envelope # for a cash donation.
+Provide when DepositToAccountRef references an Account object where Account.AccountType=Bank.
+Required when PrintStatus is set to PrintComplete.
+If PrintStatus is set to NeedToPrint, the system sets PaymentRefNum to To Print.</t>
+  </si>
+  <si>
     <t>CurrencyRef</t>
   </si>
   <si>
@@ -407,7 +463,7 @@
     <t>Cond. R</t>
   </si>
   <si>
-    <t>InvoiceHeader.Invoicenumber(Must be Unique)</t>
+    <t>Invoicenumber+"_"+TransNum(Must be Unique)</t>
   </si>
   <si>
     <t>DocNumber</t>
@@ -425,7 +481,7 @@
     <t>EmailAddress</t>
   </si>
   <si>
-    <t>InvoiceHeader.Invoicedate</t>
+    <t>TransDate</t>
   </si>
   <si>
     <t>TxnDate</t>
@@ -437,57 +493,7 @@
     <t>The date entered by the user when this transaction occurred. yyyy/MM/dd is the valid date format.</t>
   </si>
   <si>
-    <t>ShipFromAddr</t>
-  </si>
-  <si>
-    <t>PhysicalAddress</t>
-  </si>
-  <si>
-    <t>InvoiceHeader.ShipDate</t>
-  </si>
-  <si>
-    <t>ShipDate</t>
-  </si>
-  <si>
-    <t>InvoiceHeaderInfo.OrderShipmentNum</t>
-  </si>
-  <si>
-    <t>TrackingNum</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>String (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>max</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>? chars )</t>
-    </r>
-  </si>
-  <si>
     <t>ClassRef</t>
-  </si>
-  <si>
-    <t>ReferenceType</t>
   </si>
   <si>
     <r>
@@ -604,6 +610,492 @@
         <charset val="134"/>
       </rPr>
       <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>CheckPayment</t>
+  </si>
+  <si>
+    <r>
+      <t>CheckPayment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF393A3D"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>TxnSource</t>
+  </si>
+  <si>
+    <t>Used internally to specify originating source of a credit card transaction.</t>
+  </si>
+  <si>
+    <t>GlobalTaxCalculation</t>
+  </si>
+  <si>
+    <t>GlobalTaxCalculationEnum</t>
+  </si>
+  <si>
+    <t>Method in which tax is applied. Allowed values are: TaxExcluded, TaxInclusive, and NotApplicable.</t>
+  </si>
+  <si>
+    <t>TransactionLocationType</t>
+  </si>
+  <si>
+    <t>The account location. Valid values include:
+WithinFrance
+FranceOverseas
+OutsideFranceWithEU
+OutsideEU
+For France locales, only.</t>
+  </si>
+  <si>
+    <t>MetaData.CreateTime</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Time the entity was created in the source domain.</t>
+  </si>
+  <si>
+    <t>MetaData.LastUpdatedTime</t>
+  </si>
+  <si>
+    <t>Time the entity was last updated in the source domain.</t>
+  </si>
+  <si>
+    <t>tbd sellerPrivateNote</t>
+  </si>
+  <si>
+    <t>PrivateNote</t>
+  </si>
+  <si>
+    <t>BillEmailCc</t>
+  </si>
+  <si>
+    <t>tbd sellerPublicNote</t>
+  </si>
+  <si>
+    <t>CustomerMemo</t>
+  </si>
+  <si>
+    <t>MemoRef</t>
+  </si>
+  <si>
+    <t>User-entered message to the customer; this message is visible to end user on their transactions.</t>
+  </si>
+  <si>
+    <t>CreditCardPayment</t>
+  </si>
+  <si>
+    <t>EmailStatus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Email status of the invoice. Valid values: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9C005E"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NotSet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9C005E"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NeedToSend</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9C005E"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EmailSent</t>
+    </r>
+  </si>
+  <si>
+    <t>ExchangeRate</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The number of home currency units it takes to equal one unit of currency specified by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9C005E"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CurrencyRef</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. Applicable if multicurrency is enabled for the company.</t>
+    </r>
+  </si>
+  <si>
+    <t>TxnTaxDetail</t>
+  </si>
+  <si>
+    <t>This data type provides information for taxes charged on the transaction as a whole.</t>
+  </si>
+  <si>
+    <t>PaymentMethodRef</t>
+  </si>
+  <si>
+    <t>AllowOnlineCreditCardPayment</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>channelOrderID, secondaryChannelOrderID, digitbridgeOrderId</t>
+  </si>
+  <si>
+    <t>CustomField</t>
+  </si>
+  <si>
+    <t>up to 3</t>
+  </si>
+  <si>
+    <t>Line1:InvoiceHeaderInfo.ShipToName;
+Line2:InvoiceHeaderInfo.ShipToAddressLine1;
+Line3:InvoiceHeaderInfo.ShipToAddressLine2;
+Line4:InvoiceHeaderInfo.ShipToAddressLine3;
+PostalCode:InvoiceHeaderInfo.ShipToPostalCode;
+City:InvoiceHeaderInfo.ShipToCity;
+Country : InvoiceHeaderInfo.ShipToCountry;
+CountrySubDivisionCode :InvoiceHeaderInfo.ShipToState</t>
+  </si>
+  <si>
+    <t>ShipAddr</t>
+  </si>
+  <si>
+    <t>PhysicalAddress</t>
+  </si>
+  <si>
+    <t>DepartmentRef</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A reference to a Department object specifying the location of the transaction. Available if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9C005E"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Preferences.AccountingInfoPrefs.TrackDepartments</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t> is set to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9C005E"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>BillEmailBcc</t>
+  </si>
+  <si>
+    <t>Line1:InvoiceHeaderInfo.BillToName;
+Line2:InvoiceHeaderInfo.BillToAddressLine1;
+Line3:InvoiceHeaderInfo.BillToAddressLine2;
+Line4:InvoiceHeaderInfo.BillToAddressLine3;
+PostalCode:InvoiceHeaderInfo.BillToPostalCode;
+City:InvoiceHeaderInfo.BillToCity;
+Country : InvoiceHeaderInfo.BillToCountry;
+CountrySubDivisionCode :InvoiceHeaderInfo.BillToState</t>
+  </si>
+  <si>
+    <t>BillAddr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9C005E"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Customer:BillingAddr</t>
+    </r>
+  </si>
+  <si>
+    <t>ApplyTaxAfterDiscount</t>
+  </si>
+  <si>
+    <t>HomeBalance</t>
+  </si>
+  <si>
+    <t>Convenience field containing the amount in Balance expressed in terms of the home currency</t>
+  </si>
+  <si>
+    <t>DeliveryInfo</t>
+  </si>
+  <si>
+    <t>Email delivery information. Returned when a request has been made to deliver email with the send operation.</t>
+  </si>
+  <si>
+    <t>TotalAmt</t>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+  </si>
+  <si>
+    <t>Indicates the total amount of the transaction. This includes the total of all the charges, allowances, and taxes.</t>
+  </si>
+  <si>
+    <t>InvoiceLink</t>
+  </si>
+  <si>
+    <t>TaxExemptionRef</t>
+  </si>
+  <si>
+    <t>Only in Invoice</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>The balance reflecting any payments made against the transaction. Initially set to the value of TotalAmt.</t>
+  </si>
+  <si>
+    <t>HomeTotalAmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of the transaction in the home currency. Includes the total of all the charges, allowances and taxes.  Value is valid only when CurrencyRef is specified. </t>
+  </si>
+  <si>
+    <t>FreeFormAddress</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>If set to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9C005E"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, shipping address is returned in an unformatted style using Line1 through Line5 attributes.</t>
+    </r>
+  </si>
+  <si>
+    <t>RecurDataRef</t>
+  </si>
+  <si>
+    <t>Doc link:https://developer.intuit.com/app/developer/qbo/docs/api/accounting/all-entities/invoice#the-invoice-object</t>
+  </si>
+  <si>
+    <t>Invoice data</t>
+  </si>
+  <si>
+    <t>Is From Config</t>
+  </si>
+  <si>
+    <t>invoiceitems [0..n]</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>InvoiceHeader.Invoicenumber(Must be Unique)</t>
+  </si>
+  <si>
+    <t>InvoiceHeader.Invoicedate</t>
+  </si>
+  <si>
+    <t>ShipFromAddr</t>
+  </si>
+  <si>
+    <t>InvoiceHeader.ShipDate</t>
+  </si>
+  <si>
+    <t>ShipDate</t>
+  </si>
+  <si>
+    <t>InvoiceHeaderInfo.OrderShipmentNum</t>
+  </si>
+  <si>
+    <t>TrackingNum</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>? chars )</t>
     </r>
   </si>
   <si>
@@ -705,12 +1197,6 @@
     <t>tbd</t>
   </si>
   <si>
-    <t>TxnSource</t>
-  </si>
-  <si>
-    <t>Used internally to specify originating source of a credit card transaction.</t>
-  </si>
-  <si>
     <t>LinkedTxn [0..n]</t>
   </si>
   <si>
@@ -721,9 +1207,6 @@
   </si>
   <si>
     <t>AllowOnlineACHPayment</t>
-  </si>
-  <si>
-    <t>Boolean</t>
   </si>
   <si>
     <t>Specifies if this invoice can be paid with online bank transfers and corresponds to the Free bank transfer online payment check box on the QuickBooks UI</t>
@@ -765,47 +1248,6 @@
       </rPr>
       <t> added the transaction date will be used.</t>
     </r>
-  </si>
-  <si>
-    <t>MetaData.CreateTime</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DateTime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Time the entity was created in the source domain.</t>
-  </si>
-  <si>
-    <t>MetaData.LastUpdatedTime</t>
-  </si>
-  <si>
-    <t>Time the entity was last updated in the source domain.</t>
-  </si>
-  <si>
-    <t>tbd sellerPrivateNote</t>
-  </si>
-  <si>
-    <t>PrivateNote</t>
-  </si>
-  <si>
-    <t>DepositToAccountRef</t>
   </si>
   <si>
     <r>
@@ -870,219 +1312,12 @@
     </r>
   </si>
   <si>
-    <t>BillEmailCc</t>
-  </si>
-  <si>
-    <t>tbd sellerPublicNote</t>
-  </si>
-  <si>
-    <t>CustomerMemo</t>
-  </si>
-  <si>
-    <t>MemoRef</t>
-  </si>
-  <si>
-    <t>User-entered message to the customer; this message is visible to end user on their transactions.</t>
-  </si>
-  <si>
-    <t>EmailStatus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Email status of the invoice. Valid values: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF9C005E"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NotSet</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF9C005E"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NeedToSend</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF9C005E"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EmailSent</t>
-    </r>
-  </si>
-  <si>
-    <t>ExchangeRate</t>
-  </si>
-  <si>
-    <t>Decimal</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>The number of home currency units it takes to equal one unit of currency specified by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF9C005E"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CurrencyRef</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>. Applicable if multicurrency is enabled for the company.</t>
-    </r>
-  </si>
-  <si>
     <t>Deposit</t>
   </si>
   <si>
     <t>The deposit made towards this invoice.</t>
   </si>
   <si>
-    <t>TxnTaxDetail</t>
-  </si>
-  <si>
-    <t>This data type provides information for taxes charged on the transaction as a whole.</t>
-  </si>
-  <si>
-    <t>AllowOnlineCreditCardPayment</t>
-  </si>
-  <si>
-    <t>channelOrderID, secondaryChannelOrderID, digitbridgeOrderId</t>
-  </si>
-  <si>
-    <t>CustomField</t>
-  </si>
-  <si>
-    <t>up to 3</t>
-  </si>
-  <si>
-    <t>Line1:InvoiceHeaderInfo.ShipToName;
-Line2:InvoiceHeaderInfo.ShipToAddressLine1;
-Line3:InvoiceHeaderInfo.ShipToAddressLine2;
-Line4:InvoiceHeaderInfo.ShipToAddressLine3;
-PostalCode:InvoiceHeaderInfo.ShipToPostalCode;
-City:InvoiceHeaderInfo.ShipToCity;
-Country : InvoiceHeaderInfo.ShipToCountry;
-CountrySubDivisionCode :InvoiceHeaderInfo.ShipToState</t>
-  </si>
-  <si>
-    <t>ShipAddr</t>
-  </si>
-  <si>
-    <t>DepartmentRef</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A reference to a Department object specifying the location of the transaction. Available if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF9C005E"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Preferences.AccountingInfoPrefs.TrackDepartments</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t> is set to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF9C005E"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>BillEmailBcc</t>
-  </si>
-  <si>
     <t>InvoiceHeaderInfo.ShippingCarrier+ " " + InvoiceHeaderInfo.ShippingClass</t>
   </si>
   <si>
@@ -1092,119 +1327,7 @@
     <t>Reference to the ShipMethod associated with the transaction. There is no shipping method list. Reference resolves to a string</t>
   </si>
   <si>
-    <t>Line1:InvoiceHeaderInfo.BillToName;
-Line2:InvoiceHeaderInfo.BillToAddressLine1;
-Line3:InvoiceHeaderInfo.BillToAddressLine2;
-Line4:InvoiceHeaderInfo.BillToAddressLine3;
-PostalCode:InvoiceHeaderInfo.BillToPostalCode;
-City:InvoiceHeaderInfo.BillToCity;
-Country : InvoiceHeaderInfo.BillToCountry;
-CountrySubDivisionCode :InvoiceHeaderInfo.BillToState</t>
-  </si>
-  <si>
-    <t>BillAddr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>default </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF9C005E"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Customer:BillingAddr</t>
-    </r>
-  </si>
-  <si>
-    <t>ApplyTaxAfterDiscount</t>
-  </si>
-  <si>
-    <t>HomeBalance</t>
-  </si>
-  <si>
-    <t>Convenience field containing the amount in Balance expressed in terms of the home currency</t>
-  </si>
-  <si>
-    <t>DeliveryInfo</t>
-  </si>
-  <si>
-    <t>Email delivery information. Returned when a request has been made to deliver email with the send operation.</t>
-  </si>
-  <si>
-    <t>TotalAmt</t>
-  </si>
-  <si>
-    <t>BigDecimal</t>
-  </si>
-  <si>
-    <t>Indicates the total amount of the transaction. This includes the total of all the charges, allowances, and taxes.</t>
-  </si>
-  <si>
-    <t>InvoiceLink</t>
-  </si>
-  <si>
-    <t>TaxExemptionRef</t>
-  </si>
-  <si>
-    <t>Only in Invoice</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>The balance reflecting any payments made against the transaction. Initially set to the value of TotalAmt.</t>
-  </si>
-  <si>
-    <t>HomeTotalAmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total amount of the transaction in the home currency. Includes the total of all the charges, allowances and taxes.  Value is valid only when CurrencyRef is specified. </t>
-  </si>
-  <si>
-    <t>FreeFormAddress</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>If set to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF9C005E"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, shipping address is returned in an unformatted style using Line1 through Line5 attributes.</t>
-    </r>
+    <t>Central Field Name</t>
   </si>
   <si>
     <t>fulfilledOrderItems [0..n]</t>
@@ -1237,9 +1360,6 @@
     <t>endCustomerPoNum</t>
   </si>
   <si>
-    <t>PaymentRefNum</t>
-  </si>
-  <si>
     <t>String ( 21 chars )</t>
   </si>
   <si>
@@ -1261,13 +1381,7 @@
     <t>Below are fields diff from Invoice</t>
   </si>
   <si>
-    <t>CreditCardPayment</t>
-  </si>
-  <si>
     <t>Information about a credit card payment for the transaction. Used when PaymentType is CreditCard. Inject with data only if the payment was transacted through Intuit Payments API.</t>
-  </si>
-  <si>
-    <t>PaymentMethodRef</t>
   </si>
   <si>
     <t>Reference to a PaymentMethod associated with this transaction. Query the PaymentMethod name list resource to determine the appropriate PaymentMethod object for this reference. Use PaymentMethod.Id and PaymentMethod.Name from that object for PaymentMethodRef.value and PaymentMethodRef.name, respectively</t>
@@ -1810,12 +1924,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1949,17 +2063,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF393A3D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF393A3D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF393A3D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1972,30 +2105,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2009,11 +2141,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2024,11 +2163,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2056,6 +2195,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2065,22 +2212,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2129,12 +2261,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color rgb="FF393A3D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="1"/>
@@ -2202,12 +2340,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2220,13 +2352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2238,25 +2370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2280,13 +2406,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2304,19 +2442,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2328,7 +2466,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2340,31 +2496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2375,6 +2513,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2389,15 +2536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2441,15 +2579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2461,6 +2590,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2481,10 +2619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2493,137 +2631,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2672,6 +2810,15 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2993,30 +3140,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD46"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="71.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="20.8518518518519" customWidth="1"/>
-    <col min="3" max="3" width="32.287037037037" customWidth="1"/>
-    <col min="4" max="4" width="18.287037037037" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.712962962963" customWidth="1"/>
-    <col min="8" max="8" width="17.287037037037" customWidth="1"/>
-    <col min="9" max="9" width="161.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="79.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="24.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="26.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="24.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="32" customFormat="1" spans="1:1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.4" spans="1:9">
+    <row r="2" ht="20.4" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3041,777 +3186,1352 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" ht="15.6" spans="2:8">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="15.6" spans="3:9">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:9">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="265.2" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="2:8">
+      <c r="B9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="2:8">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" ht="34" customHeight="1" spans="1:8">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="2:8">
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" ht="15.6" spans="1:9">
-      <c r="A5" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" ht="15.6" spans="1:9">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" ht="15.6" spans="3:9">
-      <c r="C7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" ht="15.6" spans="1:9">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="15.6" spans="3:9">
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" ht="15.6" spans="1:9">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="2:8">
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="2:8">
+      <c r="B15" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" ht="15.6" spans="1:8">
+      <c r="A16" s="22"/>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:8">
+      <c r="A17" s="22"/>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="109.2" spans="1:8">
+      <c r="A18" s="22"/>
+      <c r="B18" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:8">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:8">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:8">
+      <c r="A21" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" ht="15.6" spans="2:8">
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="3:9">
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" ht="15.6" spans="1:9">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:8">
+      <c r="A23" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:8">
+      <c r="A24" s="33"/>
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" ht="15.6" spans="2:8">
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="2:8">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="2:8">
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="2:8">
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" ht="15.6" spans="2:8">
+      <c r="B29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" ht="15.6" spans="1:8">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" ht="115.2" spans="1:8">
+      <c r="A31" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" ht="15.6" spans="2:8">
+      <c r="B32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="2:8">
+      <c r="B33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" ht="15.6" spans="1:9">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" ht="15.6" spans="3:9">
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" ht="15.6" spans="3:9">
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" ht="15.6" spans="3:9">
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" ht="15.6" spans="1:9">
-      <c r="A17" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" ht="15.6" spans="3:9">
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="3:9">
-      <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" ht="15.6" spans="3:9">
-      <c r="C20" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" ht="15.6" spans="1:9">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:9">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" ht="15.6" spans="1:9">
-      <c r="A23" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" ht="115.2" spans="1:8">
+      <c r="A34" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="2:8">
+      <c r="B35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" ht="15.6" spans="1:8">
+      <c r="A36" s="9"/>
+      <c r="B36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" ht="15.6" spans="3:9">
-      <c r="C24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" ht="15.6" spans="3:9">
-      <c r="C25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="1:8">
+      <c r="A37" s="9"/>
+      <c r="B37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="1:8">
+      <c r="A38" s="9"/>
+      <c r="B38" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" ht="15.6" spans="1:8">
+      <c r="A39" s="9"/>
+      <c r="B39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" ht="15.6" spans="1:8">
+      <c r="A40" s="9"/>
+      <c r="B40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" ht="15.6" spans="1:8">
+      <c r="A41" s="9"/>
+      <c r="B41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" ht="15.6" spans="1:8">
+      <c r="A42" s="9"/>
+      <c r="B42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" ht="15.6" spans="2:8">
+      <c r="B43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" ht="15.6" spans="3:9">
-      <c r="C27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" ht="15.6" spans="3:9">
-      <c r="C28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" ht="15.6" spans="3:9">
-      <c r="C29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" ht="15.6" spans="3:9">
-      <c r="C30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" ht="15.6" spans="3:9">
-      <c r="C31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" ht="15.6" spans="1:9">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" ht="115.2" spans="1:9">
-      <c r="A33" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" ht="15.6" spans="3:9">
-      <c r="C34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" ht="15.6" spans="3:9">
-      <c r="C35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" ht="15.6" spans="1:9">
-      <c r="A36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="36" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" ht="115.2" spans="1:9">
-      <c r="A37" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" ht="15.6" spans="3:9">
-      <c r="C38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" ht="15.6" spans="1:9">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" ht="15.6" spans="1:9">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" ht="15.6" spans="1:9">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" ht="15.6" spans="1:9">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" ht="15.6" spans="1:9">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" ht="15.6" spans="1:9">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" ht="15.6" spans="1:9">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" ht="15.6" spans="3:9">
-      <c r="C46" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="6" t="s">
-        <v>117</v>
+      <c r="C45" s="36" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId3" display="doc link: https://developer.intuit.com/app/developer/qbo/docs/api/accounting/all-entities/refundreceipt" tooltip="https://developer.intuit.com/app/developer/qbo/docs/api/accounting/all-entities/refundreceipt"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.8518518518519" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="29.4259259259259" customWidth="1"/>
+    <col min="4" max="4" width="19.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="14.287037037037" customWidth="1"/>
+    <col min="6" max="6" width="13.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="14.8518518518519" customWidth="1"/>
+    <col min="8" max="8" width="12.712962962963" customWidth="1"/>
+    <col min="9" max="9" width="37.4259259259259" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="55.712962962963" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.4" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="9"/>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="J5" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="12"/>
+      <c r="J14" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="9"/>
+      <c r="C19" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="J19" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="9"/>
+      <c r="C20" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="9"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="J27" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="9"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" t="s">
+        <v>296</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="J28" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G45"/>
@@ -3833,55 +4553,55 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -3894,11 +4614,11 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -3907,94 +4627,94 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4004,10 +4724,10 @@
     </row>
     <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4017,10 +4737,10 @@
     </row>
     <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4030,163 +4750,163 @@
     </row>
     <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="6" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="6" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="6" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4196,25 +4916,25 @@
     </row>
     <row r="23" ht="15.6" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="6" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4224,85 +4944,85 @@
     </row>
     <row r="25" ht="15.6" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="6" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4312,25 +5032,25 @@
     </row>
     <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -4340,25 +5060,25 @@
     </row>
     <row r="33" ht="15.6" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -4368,10 +5088,10 @@
     </row>
     <row r="35" ht="15.6" spans="1:7">
       <c r="A35" s="6" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -4381,25 +5101,25 @@
     </row>
     <row r="36" ht="15.6" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" ht="15.6" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4409,132 +5129,132 @@
     </row>
     <row r="38" ht="15.6" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" ht="15.6" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" ht="15.6" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" ht="15.6" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" ht="15.6" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" ht="15.6" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4545,6 +5265,827 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD46"/>
+  <sheetViews>
+    <sheetView topLeftCell="G37" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="71.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="20.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="32.287037037037" customWidth="1"/>
+    <col min="4" max="4" width="18.287037037037" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="17.287037037037" customWidth="1"/>
+    <col min="9" max="9" width="161.712962962963" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="32" customFormat="1" spans="1:1">
+      <c r="A1" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" ht="20.4" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="3:9">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:9">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:9">
+      <c r="A5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" ht="15.6" spans="3:9">
+      <c r="C7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:9">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="3:9">
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:9">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="3:9">
+      <c r="C11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:9">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:9">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" ht="15.6" spans="3:9">
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="3:9">
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="3:9">
+      <c r="C16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:9">
+      <c r="A17" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="3:9">
+      <c r="C18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="3:9">
+      <c r="C19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="3:9">
+      <c r="C20" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:9">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:9">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:9">
+      <c r="A23" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" ht="15.6" spans="3:9">
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="3:9">
+      <c r="C25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" ht="15.6" spans="1:9">
+      <c r="A26" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="3:9">
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="3:9">
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="3:9">
+      <c r="C29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="3:9">
+      <c r="C30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="3:9">
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" ht="15.6" spans="1:9">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" ht="115.2" spans="1:9">
+      <c r="A33" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" ht="15.6" spans="3:9">
+      <c r="C34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="3:9">
+      <c r="C35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" ht="15.6" spans="1:9">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" ht="115.2" spans="1:9">
+      <c r="A37" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="3:9">
+      <c r="C38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" ht="15.6" spans="1:9">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" ht="15.6" spans="1:9">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" ht="15.6" spans="1:9">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" ht="15.6" spans="1:9">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" ht="15.6" spans="1:9">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" ht="15.6" spans="1:9">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" ht="15.6" spans="1:9">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" ht="15.6" spans="3:9">
+      <c r="C46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I45"/>
@@ -4567,79 +6108,79 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="3:9">
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" ht="15.6" spans="1:9">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" ht="15.6" spans="1:9">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -4649,11 +6190,11 @@
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -4664,103 +6205,103 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" ht="15.6" spans="1:9">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" ht="15.6" spans="1:9">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="3:9">
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" ht="15.6" spans="1:9">
       <c r="A9" s="22" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="2"/>
       <c r="I9" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="3:9">
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4770,13 +6311,13 @@
     </row>
     <row r="11" ht="15.6" spans="1:9">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4786,13 +6327,13 @@
     </row>
     <row r="12" ht="15.6" spans="1:9">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4802,173 +6343,173 @@
     </row>
     <row r="13" ht="15.6" spans="3:9">
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="3:9">
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="3:9">
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="6" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:9">
       <c r="A16" s="22" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
       <c r="H16" s="2"/>
       <c r="I16" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="3:9">
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
       <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="3:9">
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
       <c r="H18" s="2"/>
       <c r="I18" s="6" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="3:9">
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="2"/>
       <c r="I19" s="6" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:9">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:9">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:9">
       <c r="A22" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -4978,25 +6519,25 @@
     </row>
     <row r="23" ht="15.6" spans="3:9">
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="25"/>
       <c r="H23" s="2"/>
       <c r="I23" s="6" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="3:9">
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -5006,88 +6547,88 @@
     </row>
     <row r="25" ht="15.6" spans="1:9">
       <c r="A25" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
       <c r="H25" s="2"/>
       <c r="I25" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="3:9">
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="25"/>
       <c r="H26" s="2"/>
       <c r="I26" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="15.6" spans="3:9">
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
       <c r="H27" s="2"/>
       <c r="I27" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="3:9">
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="25"/>
       <c r="H28" s="2"/>
       <c r="I28" s="6" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="3:9">
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
       <c r="H29" s="2"/>
       <c r="I29" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="3:9">
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -5097,31 +6638,31 @@
     </row>
     <row r="31" ht="15.6" spans="1:9">
       <c r="A31" s="22" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
       <c r="H31" s="2"/>
       <c r="I31" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:9">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -5131,25 +6672,25 @@
     </row>
     <row r="33" ht="15.6" spans="3:9">
       <c r="C33" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
       <c r="H33" s="2"/>
       <c r="I33" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="3:9">
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
@@ -5159,46 +6700,46 @@
     </row>
     <row r="35" ht="15.6" spans="1:9">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" ht="15.6" spans="1:9">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="25"/>
       <c r="H36" s="2"/>
       <c r="I36" s="6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" ht="15.6" spans="3:9">
       <c r="C37" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -5210,72 +6751,72 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" ht="15.6" spans="1:9">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" ht="15.6" spans="1:9">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="1:9">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -5284,72 +6825,72 @@
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="31" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" ht="15.6" spans="1:9">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" ht="15.6" spans="1:9">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="3:9">
       <c r="C45" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5360,12 +6901,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B27" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5383,79 +6924,79 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="3:9">
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" ht="15.6" spans="1:9">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" ht="15.6" spans="1:9">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -5465,11 +7006,11 @@
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -5480,103 +7021,103 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" ht="15.6" spans="1:9">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" ht="15.6" spans="1:9">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="3:9">
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" ht="15.6" spans="1:9">
       <c r="A9" s="22" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="2"/>
       <c r="I9" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="3:9">
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -5586,13 +7127,13 @@
     </row>
     <row r="11" ht="15.6" spans="1:9">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -5602,13 +7143,13 @@
     </row>
     <row r="12" ht="15.6" spans="1:9">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -5618,199 +7159,199 @@
     </row>
     <row r="13" ht="15.6" spans="3:9">
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="3:9">
       <c r="C14" s="2" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="3:9">
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="3:9">
       <c r="C16" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="2"/>
       <c r="I16" s="6" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:9">
       <c r="A17" s="22" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
       <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="3:9">
       <c r="C18" s="26" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
       <c r="H18" s="2"/>
       <c r="I18" s="6" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="3:9">
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
       <c r="H19" s="2"/>
       <c r="I19" s="6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="3:9">
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
       <c r="H20" s="2"/>
       <c r="I20" s="6" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="3:9">
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="2"/>
       <c r="I21" s="6" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:9">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:9">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:9">
       <c r="A24" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -5820,25 +7361,25 @@
     </row>
     <row r="25" ht="15.6" spans="3:9">
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
       <c r="H25" s="2"/>
       <c r="I25" s="6" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="3:9">
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -5848,88 +7389,88 @@
     </row>
     <row r="27" ht="15.6" spans="1:9">
       <c r="A27" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
       <c r="H27" s="2"/>
       <c r="I27" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="3:9">
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="25"/>
       <c r="H28" s="2"/>
       <c r="I28" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="3:9">
       <c r="C29" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
       <c r="H29" s="2"/>
       <c r="I29" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="3:9">
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
       <c r="H30" s="2"/>
       <c r="I30" s="6" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="3:9">
       <c r="C31" s="27" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
       <c r="H31" s="2"/>
       <c r="I31" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="3:9">
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -5939,31 +7480,31 @@
     </row>
     <row r="33" ht="15.6" spans="1:9">
       <c r="A33" s="22" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
       <c r="H33" s="2"/>
       <c r="I33" s="6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:9">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
@@ -5973,25 +7514,25 @@
     </row>
     <row r="35" ht="15.6" spans="3:9">
       <c r="C35" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
       <c r="H35" s="2"/>
       <c r="I35" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" ht="15.6" spans="3:9">
       <c r="C36" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -6001,110 +7542,110 @@
     </row>
     <row r="37" ht="15.6" spans="1:9">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="25"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:9">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
       <c r="H38" s="2"/>
       <c r="I38" s="6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" ht="15.6" spans="1:9">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="28" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="15.6" spans="1:9">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="28" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="1:9">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="28" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:9">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="28" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -6113,60 +7654,60 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="28" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" ht="15.6" spans="1:9">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="28" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="3:9">
       <c r="C45" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" ht="15.6" spans="1:9">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="30" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
@@ -6177,24 +7718,24 @@
     </row>
     <row r="47" ht="15.6" spans="3:9">
       <c r="C47" s="26" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" ht="15.6" spans="3:9">
       <c r="C48" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6205,7 +7746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D17"/>
@@ -6224,183 +7765,183 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="12" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="12" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="12" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -6408,7 +7949,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="23" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6418,7 +7959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I7"/>
@@ -6442,125 +7983,125 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="12" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="12" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6570,7 +8111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I6"/>
@@ -6594,105 +8135,105 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="9"/>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="12" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="12" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6701,7 +8242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G4"/>
@@ -6723,66 +8264,66 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" s="16" customFormat="1" ht="15.6" spans="3:7">
       <c r="C4" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6792,7 +8333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
@@ -6817,138 +8358,138 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="3:7">
       <c r="C5" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G5" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6956,630 +8497,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26.8518518518519" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="29.4259259259259" customWidth="1"/>
-    <col min="4" max="4" width="19.712962962963" customWidth="1"/>
-    <col min="5" max="5" width="14.287037037037" customWidth="1"/>
-    <col min="6" max="6" width="13.8518518518519" customWidth="1"/>
-    <col min="7" max="7" width="14.8518518518519" customWidth="1"/>
-    <col min="8" max="8" width="12.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="37.4259259259259" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="55.712962962963" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.4" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="9"/>
-      <c r="C5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="J5" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12"/>
-      <c r="J10" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
-      <c r="J11" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12"/>
-      <c r="J12" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
-      <c r="J13" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
-      <c r="J14" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10">
-      <c r="C15" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="12"/>
-      <c r="J15" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="12"/>
-      <c r="J16" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="12"/>
-      <c r="J17" s="16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D18" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
-      <c r="J18" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="9"/>
-      <c r="C19" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="J19" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="9"/>
-      <c r="C20" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="12"/>
-      <c r="J20" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="C21" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="12"/>
-      <c r="J21" s="16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="12"/>
-      <c r="J22" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12"/>
-      <c r="J23" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="12"/>
-      <c r="J24" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="12"/>
-      <c r="J25" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="12"/>
-      <c r="J26" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="9"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="J27" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="9"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D28" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="J28" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
-      <c r="C31" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" t="s">
-        <v>287</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
 </file>